--- a/Assets/Yama/MagicData.xlsx
+++ b/Assets/Yama/MagicData.xlsx
@@ -24,28 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>攻撃力</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中心点Ｘ</t>
-    <rPh sb="0" eb="3">
-      <t>チュウシンテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中心点Ｙ</t>
-    <rPh sb="0" eb="3">
-      <t>チュウシンテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>攻撃範囲、攻撃が当たる場所は1当たらない場所は0中心点は念のため0に</t>
     <rPh sb="0" eb="2">
@@ -427,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,23 +417,14 @@
     <col min="1" max="1" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
